--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y515"/>
+  <dimension ref="A1:Y516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
       </c>
       <c r="R514" s="2" t="inlineStr"/>
     </row>
-    <row r="515">
+    <row r="515" ht="15" customHeight="1">
       <c r="A515" t="inlineStr">
         <is>
           <t>A 39624-2023</t>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31049,6 +31049,63 @@
         <v>0</v>
       </c>
       <c r="R515" s="2" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>A 41945-2023</t>
+        </is>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C516" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" t="n">
+        <v>0</v>
+      </c>
+      <c r="O516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R516" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y516"/>
+  <dimension ref="A1:Y517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
       </c>
       <c r="R515" s="2" t="inlineStr"/>
     </row>
-    <row r="516">
+    <row r="516" ht="15" customHeight="1">
       <c r="A516" t="inlineStr">
         <is>
           <t>A 41945-2023</t>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31106,6 +31106,63 @@
         <v>0</v>
       </c>
       <c r="R516" s="2" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>A 43230-2023</t>
+        </is>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C517" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N517" t="n">
+        <v>0</v>
+      </c>
+      <c r="O517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R517" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 19961-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 19961-2022.xlsx", "A 19961-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 19961-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 19961-2022.png", "A 19961-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 19961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 19961-2022.docx", "A 19961-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 19961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 19961-2022.docx", "A 19961-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 19961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 19961-2022.docx", "A 19961-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 19961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 19961-2022.docx", "A 19961-2022")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -734,27 +734,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 33313-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 33313-2019.xlsx", "A 33313-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 33313-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 33313-2019.png", "A 33313-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 33313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 33313-2019.docx", "A 33313-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 33313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 33313-2019.docx", "A 33313-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 33313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 33313-2019.docx", "A 33313-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 33313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 33313-2019.docx", "A 33313-2019")</f>
         <v/>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 1988-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 1988-2022.xlsx", "A 1988-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 1988-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 1988-2022.png", "A 1988-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 1988-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 1988-2022.docx", "A 1988-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 1988-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 1988-2022.docx", "A 1988-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 1988-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 1988-2022.docx", "A 1988-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 1988-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 1988-2022.docx", "A 1988-2022")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,27 +912,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 60284-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 60284-2022.xlsx", "A 60284-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 60284-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 60284-2022.png", "A 60284-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 60284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 60284-2022.docx", "A 60284-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 60284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 60284-2022.docx", "A 60284-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 60284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 60284-2022.docx", "A 60284-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 60284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 60284-2022.docx", "A 60284-2022")</f>
         <v/>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,27 +1005,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 61504-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 61504-2020.xlsx", "A 61504-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 61504-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 61504-2020.png", "A 61504-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 61504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 61504-2020.docx", "A 61504-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 61504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 61504-2020.docx", "A 61504-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 61504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 61504-2020.docx", "A 61504-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 61504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 61504-2020.docx", "A 61504-2020")</f>
         <v/>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,27 +1093,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68998-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68998-2021.xlsx", "A 68998-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68998-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68998-2021.png", "A 68998-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68998-2021.docx", "A 68998-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68998-2021.docx", "A 68998-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68998-2021.docx", "A 68998-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68998-2021.docx", "A 68998-2021")</f>
         <v/>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,31 +1180,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 49848-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 49848-2019.xlsx", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 49848-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 49848-2019.png", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 49848-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 49848-2019.png", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 49848-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 49848-2019.docx", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 49848-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 49848-2019.docx", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 49848-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 49848-2019.docx", "A 49848-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 49848-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 49848-2019.docx", "A 49848-2019")</f>
         <v/>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,27 +1271,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 52050-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 52050-2019.xlsx", "A 52050-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 52050-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 52050-2019.png", "A 52050-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 52050-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 52050-2019.docx", "A 52050-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 52050-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 52050-2019.docx", "A 52050-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 52050-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 52050-2019.docx", "A 52050-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 52050-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 52050-2019.docx", "A 52050-2019")</f>
         <v/>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,31 +1363,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 6318-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 6318-2020.xlsx", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 6318-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 6318-2020.png", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 6318-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 6318-2020.png", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 6318-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 6318-2020.docx", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 6318-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 6318-2020.docx", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 6318-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 6318-2020.docx", "A 6318-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 6318-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 6318-2020.docx", "A 6318-2020")</f>
         <v/>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,27 +1459,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 2711-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 2711-2022.xlsx", "A 2711-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 2711-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 2711-2022.png", "A 2711-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 2711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 2711-2022.docx", "A 2711-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 2711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 2711-2022.docx", "A 2711-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 2711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 2711-2022.docx", "A 2711-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 2711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 2711-2022.docx", "A 2711-2022")</f>
         <v/>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,27 +1551,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 73903-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 73903-2021.xlsx", "A 73903-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 73903-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 73903-2021.png", "A 73903-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 73903-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 73903-2021.docx", "A 73903-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 73903-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 73903-2021.docx", "A 73903-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 73903-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 73903-2021.docx", "A 73903-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 73903-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 73903-2021.docx", "A 73903-2021")</f>
         <v/>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,27 +1638,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 19960-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 19960-2022.xlsx", "A 19960-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 19960-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 19960-2022.png", "A 19960-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 19960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 19960-2022.docx", "A 19960-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 19960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 19960-2022.docx", "A 19960-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 19960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 19960-2022.docx", "A 19960-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 19960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 19960-2022.docx", "A 19960-2022")</f>
         <v/>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,27 +1725,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 31552-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 31552-2023.xlsx", "A 31552-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 31552-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 31552-2023.png", "A 31552-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 31552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 31552-2023.docx", "A 31552-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 31552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 31552-2023.docx", "A 31552-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 31552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 31552-2023.docx", "A 31552-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 31552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 31552-2023.docx", "A 31552-2023")</f>
         <v/>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,27 +1811,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68997-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68997-2018.xlsx", "A 68997-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68997-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68997-2018.png", "A 68997-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68997-2018.docx", "A 68997-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68997-2018.docx", "A 68997-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68997-2018.docx", "A 68997-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68997-2018.docx", "A 68997-2018")</f>
         <v/>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,27 +1902,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 14181-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 14181-2020.xlsx", "A 14181-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 14181-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 14181-2020.png", "A 14181-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 14181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 14181-2020.docx", "A 14181-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 14181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 14181-2020.docx", "A 14181-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 14181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 14181-2020.docx", "A 14181-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 14181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 14181-2020.docx", "A 14181-2020")</f>
         <v/>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,27 +1988,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 74031-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 74031-2021.xlsx", "A 74031-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 74031-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 74031-2021.png", "A 74031-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 74031-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 74031-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 74031-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 74031-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,27 +2074,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 52092-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 52092-2022.xlsx", "A 52092-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 52092-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 52092-2022.png", "A 52092-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 52092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 52092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 52092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 52092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,27 +2160,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 61114-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 61114-2022.xlsx", "A 61114-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 61114-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 61114-2022.png", "A 61114-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 61114-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 61114-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 61114-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 61114-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2245,27 +2245,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68963-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68963-2018.xlsx", "A 68963-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68963-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68963-2018.png", "A 68963-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68963-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68963-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68963-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68963-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2330,27 +2330,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 710-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 710-2019.xlsx", "A 710-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 710-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 710-2019.png", "A 710-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2415,27 +2415,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 2484-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 2484-2019.xlsx", "A 2484-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 2484-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 2484-2019.png", "A 2484-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 2484-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 2484-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 2484-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 2484-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2500,27 +2500,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 39974-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 39974-2019.xlsx", "A 39974-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 39974-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 39974-2019.png", "A 39974-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 39974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 39974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 39974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 39974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,27 +2585,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 40881-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 40881-2019.xlsx", "A 40881-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 40881-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 40881-2019.png", "A 40881-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 40881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 40881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 40881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 40881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,27 +2670,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 42340-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 42340-2019.xlsx", "A 42340-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 42340-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 42340-2019.png", "A 42340-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 42340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 42340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 42340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 42340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2760,27 +2760,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 49060-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 49060-2019.xlsx", "A 49060-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 49060-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 49060-2019.png", "A 49060-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 49060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 49060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 49060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 49060-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2845,27 +2845,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 15765-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 15765-2020.xlsx", "A 15765-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 15765-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 15765-2020.png", "A 15765-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 15765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 15765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 15765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 15765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2930,27 +2930,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 46185-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 46185-2020.xlsx", "A 46185-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 46185-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 46185-2020.png", "A 46185-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 46185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 46185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 46185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 46185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3015,27 +3015,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 34150-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 34150-2021.xlsx", "A 34150-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 34150-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 34150-2021.png", "A 34150-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 34150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 34150-2021.docx", "A 34150-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 34150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 34150-2021.docx", "A 34150-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 34150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 34150-2021.docx", "A 34150-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 34150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 34150-2021.docx", "A 34150-2021")</f>
         <v/>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3100,31 +3100,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 60855-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 60855-2021.xlsx", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 60855-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 60855-2021.png", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 60855-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/knärot/A 60855-2021.png", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 60855-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 60855-2021.docx", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 60855-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 60855-2021.docx", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 60855-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 60855-2021.docx", "A 60855-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 60855-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 60855-2021.docx", "A 60855-2021")</f>
         <v/>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,27 +3189,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 18588-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 18588-2022.xlsx", "A 18588-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 18588-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 18588-2022.png", "A 18588-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 18588-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 18588-2022.docx", "A 18588-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 18588-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 18588-2022.docx", "A 18588-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 18588-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 18588-2022.docx", "A 18588-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 18588-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 18588-2022.docx", "A 18588-2022")</f>
         <v/>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,27 +3274,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 23961-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 23961-2022.xlsx", "A 23961-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 23961-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 23961-2022.png", "A 23961-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 23961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 23961-2022.docx", "A 23961-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 23961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 23961-2022.docx", "A 23961-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 23961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 23961-2022.docx", "A 23961-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 23961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 23961-2022.docx", "A 23961-2022")</f>
         <v/>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,27 +3359,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 47489-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 47489-2022.xlsx", "A 47489-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 47489-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 47489-2022.png", "A 47489-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 47489-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 47489-2022.docx", "A 47489-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 47489-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 47489-2022.docx", "A 47489-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 47489-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 47489-2022.docx", "A 47489-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 47489-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 47489-2022.docx", "A 47489-2022")</f>
         <v/>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,27 +3444,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 39623-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 39623-2023.xlsx", "A 39623-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 39623-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 39623-2023.png", "A 39623-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 39623-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 39623-2023.docx", "A 39623-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 39623-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 39623-2023.docx", "A 39623-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 39623-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 39623-2023.docx", "A 39623-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 39623-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 39623-2023.docx", "A 39623-2023")</f>
         <v/>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44557</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43476</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43692</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43731</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44092</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43360</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43383</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43470</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43521</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43528</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43531</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43558</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43640</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43650</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43665</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43684</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43685</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43695</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43706</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43709</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43721</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43727</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43759</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43762</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43766</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43773</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43777</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43790</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43803</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43808</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43832</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43843</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43846</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43857</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>43859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>43860</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43866</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43878</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43880</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43917</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43924</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43927</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43948</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43970</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43977</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43984</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44007</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44008</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44018</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44056</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44067</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44089</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44095</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44102</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44103</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44106</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44117</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44118</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44120</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44123</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44130</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44138</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44144</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44146</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44147</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44151</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44158</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44166</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44178</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44182</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44194</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44217</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44225</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44232</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44235</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44260</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44264</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44269</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44272</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44276</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44280</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44284</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44287</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44292</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44293</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44301</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44305</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44306</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44314</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44337</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44357</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44368</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44379</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44386</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44391</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44395</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44399</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>44426</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44431</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44438</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44446</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44454</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44455</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44460</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44473</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44475</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44490</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44497</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44502</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44525</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44529</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44531</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44543</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44546</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44547</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44557</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44566</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44568</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44580</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44587</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44588</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44600</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44606</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44607</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44623</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44657</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44678</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44679</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44680</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44687</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44693</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44694</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44697</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44699</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44728</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44753</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44761</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44768</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44775</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44789</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44790</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44795</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44810</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44816</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44819</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44827</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44831</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44838</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44844</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44846</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44851</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44859</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44862</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44869</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44872</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44875</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44901</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44904</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44909</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44910</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44935</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44941</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44966</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44979</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>45001</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45007</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45008</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45019</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45021</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45033</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45034</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45040</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45048</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45054</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45055</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45056</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45069</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45083</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45092</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45098</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45099</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45104</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45131</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45139</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45141</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45142</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45146</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45164</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>45177</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y518"/>
+  <dimension ref="A1:Y519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,14 +1929,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 74031-2021</t>
+          <t>A 34150-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44557</v>
+        <v>44379</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1983,1062 +1983,1063 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Bronshjon</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 34150-2021.xlsx", "A 34150-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 34150-2021.png", "A 34150-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 34150-2021.docx", "A 34150-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 34150-2021.docx", "A 34150-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 34150-2021.docx", "A 34150-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 34150-2021.docx", "A 34150-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 74031-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44557</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Scharlakansvårskål agg.
 Tibast</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 74031-2021.xlsx", "A 74031-2021")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 74031-2021.png", "A 74031-2021")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 74031-2021.docx", "A 74031-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 52092-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44873</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>2.4</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Fyrflikig jordstjärna</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 52092-2022.xlsx", "A 52092-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 52092-2022.png", "A 52092-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 52092-2022.docx", "A 52092-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 61114-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44915</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>19.1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 61114-2022.xlsx", "A 61114-2022")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 61114-2022.png", "A 61114-2022")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 61114-2022.docx", "A 61114-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 68963-2018</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>43440</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>1.4</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Mindre märgborre</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 68963-2018.xlsx", "A 68963-2018")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 68963-2018.png", "A 68963-2018")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 68963-2018.docx", "A 68963-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 710-2019</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>43470</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>2.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Kalkkärrsgrynsnäcka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 710-2019.xlsx", "A 710-2019")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 710-2019.png", "A 710-2019")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 710-2019.docx", "A 710-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 2484-2019</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>43476</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>14.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Koralltaggsvamp</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 2484-2019.xlsx", "A 2484-2019")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 2484-2019.png", "A 2484-2019")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 2484-2019.docx", "A 2484-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 39974-2019</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>43692</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>6</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Havsörn</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 39974-2019.xlsx", "A 39974-2019")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 39974-2019.png", "A 39974-2019")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 39974-2019.docx", "A 39974-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 40881-2019</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>43697</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>21</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Rävticka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 40881-2019.xlsx", "A 40881-2019")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 40881-2019.png", "A 40881-2019")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 40881-2019.docx", "A 40881-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 42340-2019</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>43703</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>3.9</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 42340-2019.xlsx", "A 42340-2019")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 42340-2019.png", "A 42340-2019")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 42340-2019.docx", "A 42340-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 49060-2019</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>43731</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>1.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Backtimjan</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 49060-2019.xlsx", "A 49060-2019")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 49060-2019.png", "A 49060-2019")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 49060-2019.docx", "A 49060-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 15765-2020</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>43915</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C28" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>0.4</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Havsörn</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 15765-2020.xlsx", "A 15765-2020")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 15765-2020.png", "A 15765-2020")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 15765-2020.docx", "A 15765-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 46185-2020</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44092</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C29" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>1.7</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 46185-2020.xlsx", "A 46185-2020")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 46185-2020.png", "A 46185-2020")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 46185-2020.docx", "A 46185-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 34150-2021</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44379</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ENKÖPING</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/artfynd/A 34150-2021.xlsx", "A 34150-2021")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/kartor/A 34150-2021.png", "A 34150-2021")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomål/A 34150-2021.docx", "A 34150-2021")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/klagomålsmail/A 34150-2021.docx", "A 34150-2021")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsyn/A 34150-2021.docx", "A 34150-2021")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ENKOPING/tillsynsmail/A 34150-2021.docx", "A 34150-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
@@ -3049,7 +3050,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3139,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,7 +3224,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3308,7 +3309,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3393,7 +3394,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3479,7 @@
         <v>45191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3563,7 +3564,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3620,7 +3621,7 @@
         <v>43360</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3677,7 +3678,7 @@
         <v>43383</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3735,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3792,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3849,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3906,7 @@
         <v>43417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3963,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4019,7 +4020,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4076,7 +4077,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4133,7 +4134,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4190,7 +4191,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4247,7 +4248,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4304,7 +4305,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4361,7 +4362,7 @@
         <v>43431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4418,7 +4419,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4475,7 +4476,7 @@
         <v>43437</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4532,7 +4533,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4589,7 +4590,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4646,7 +4647,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4703,7 +4704,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4760,7 +4761,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4817,7 +4818,7 @@
         <v>43441</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4874,7 +4875,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4937,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4994,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5051,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5108,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5165,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5222,7 @@
         <v>43451</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5279,7 @@
         <v>43470</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5336,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5393,7 @@
         <v>43472</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5450,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5507,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5563,7 +5564,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5620,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5677,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5734,7 +5735,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5791,7 +5792,7 @@
         <v>43515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5848,7 +5849,7 @@
         <v>43521</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5905,7 +5906,7 @@
         <v>43528</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5962,7 +5963,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6019,7 +6020,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6076,7 +6077,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6133,7 +6134,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6190,7 +6191,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6247,7 +6248,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6304,7 +6305,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6361,7 +6362,7 @@
         <v>43558</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6418,7 +6419,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6475,7 +6476,7 @@
         <v>43593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6532,7 +6533,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6589,7 +6590,7 @@
         <v>43621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6646,7 +6647,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6703,7 +6704,7 @@
         <v>43633</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6760,7 +6761,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6817,7 +6818,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6874,7 +6875,7 @@
         <v>43644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6931,7 +6932,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6988,7 +6989,7 @@
         <v>43650</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7045,7 +7046,7 @@
         <v>43665</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7102,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7159,7 +7160,7 @@
         <v>43672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7216,7 +7217,7 @@
         <v>43679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7273,7 +7274,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7330,7 +7331,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7387,7 +7388,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7444,7 +7445,7 @@
         <v>43683</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7501,7 +7502,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7558,7 +7559,7 @@
         <v>43684</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>43685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7672,7 +7673,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>43695</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7786,7 +7787,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7843,7 +7844,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7900,7 +7901,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7957,7 +7958,7 @@
         <v>43704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8014,7 +8015,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8071,7 +8072,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8128,7 +8129,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8185,7 +8186,7 @@
         <v>43709</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8242,7 +8243,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8299,7 +8300,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8356,7 +8357,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8413,7 +8414,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8470,7 +8471,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8527,7 +8528,7 @@
         <v>43717</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8584,7 +8585,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8641,7 +8642,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8698,7 +8699,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8755,7 +8756,7 @@
         <v>43720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8812,7 +8813,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8869,7 +8870,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8926,7 +8927,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8983,7 +8984,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9040,7 +9041,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9097,7 +9098,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9154,7 +9155,7 @@
         <v>43727</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9212,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9268,7 +9269,7 @@
         <v>43733</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9325,7 +9326,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9382,7 +9383,7 @@
         <v>43738</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9439,7 +9440,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9496,7 +9497,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9553,7 +9554,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9610,7 +9611,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9667,7 +9668,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9724,7 +9725,7 @@
         <v>43741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9781,7 +9782,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9838,7 +9839,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9895,7 +9896,7 @@
         <v>43746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9952,7 +9953,7 @@
         <v>43752</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10010,7 @@
         <v>43756</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10067,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10124,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10181,7 @@
         <v>43759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10238,7 @@
         <v>43762</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10294,7 +10295,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10351,7 +10352,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10408,7 +10409,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10465,7 +10466,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10522,7 +10523,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10579,7 +10580,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10636,7 +10637,7 @@
         <v>43768</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10693,7 +10694,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10750,7 +10751,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10807,7 +10808,7 @@
         <v>43775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10864,7 +10865,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10921,7 +10922,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10978,7 +10979,7 @@
         <v>43777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11035,7 +11036,7 @@
         <v>43782</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11092,7 +11093,7 @@
         <v>43790</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11149,7 +11150,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11206,7 +11207,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11263,7 +11264,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11320,7 +11321,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11377,7 +11378,7 @@
         <v>43811</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11434,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11491,7 +11492,7 @@
         <v>43812</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11553,7 +11554,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11610,7 +11611,7 @@
         <v>43817</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11667,7 +11668,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11724,7 +11725,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11781,7 +11782,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11838,7 +11839,7 @@
         <v>43826</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11895,7 +11896,7 @@
         <v>43832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11952,7 +11953,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12009,7 +12010,7 @@
         <v>43839</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12066,7 +12067,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12123,7 +12124,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12185,7 +12186,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12247,7 +12248,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12309,7 +12310,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12366,7 +12367,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12428,7 +12429,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12490,7 +12491,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12552,7 +12553,7 @@
         <v>43846</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12614,7 +12615,7 @@
         <v>43857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12671,7 +12672,7 @@
         <v>43859</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12728,7 +12729,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12785,7 +12786,7 @@
         <v>43860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12842,7 +12843,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12899,7 +12900,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12956,7 +12957,7 @@
         <v>43865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13013,7 +13014,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13075,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13132,7 +13133,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13189,7 +13190,7 @@
         <v>43866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13246,7 +13247,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13303,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13360,7 +13361,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13417,7 +13418,7 @@
         <v>43875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13474,7 +13475,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13536,7 +13537,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13593,7 +13594,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13650,7 +13651,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13707,7 +13708,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13764,7 +13765,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13821,7 +13822,7 @@
         <v>43889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13878,7 +13879,7 @@
         <v>43892</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13935,7 +13936,7 @@
         <v>43895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13992,7 +13993,7 @@
         <v>43917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14049,7 +14050,7 @@
         <v>43924</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14106,7 +14107,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14163,7 +14164,7 @@
         <v>43927</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14220,7 +14221,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14277,7 +14278,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14334,7 +14335,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14391,7 +14392,7 @@
         <v>43938</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14448,7 +14449,7 @@
         <v>43945</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14505,7 +14506,7 @@
         <v>43948</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14562,7 +14563,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14619,7 +14620,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14676,7 +14677,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14733,7 +14734,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14790,7 +14791,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14847,7 +14848,7 @@
         <v>43964</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14904,7 +14905,7 @@
         <v>43965</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14961,7 +14962,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15018,7 +15019,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15075,7 +15076,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15132,7 +15133,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15189,7 +15190,7 @@
         <v>43979</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15246,7 +15247,7 @@
         <v>43984</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15303,7 +15304,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15360,7 +15361,7 @@
         <v>43985</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15417,7 +15418,7 @@
         <v>43990</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15474,7 +15475,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15531,7 +15532,7 @@
         <v>44000</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15588,7 +15589,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15645,7 +15646,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15702,7 +15703,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15759,7 +15760,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15816,7 +15817,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15878,7 +15879,7 @@
         <v>44013</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15940,7 +15941,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15997,7 +15998,7 @@
         <v>44015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16054,7 +16055,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16111,7 +16112,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16168,7 +16169,7 @@
         <v>44022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16225,7 +16226,7 @@
         <v>44056</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16282,7 +16283,7 @@
         <v>44067</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16339,7 +16340,7 @@
         <v>44089</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16396,7 +16397,7 @@
         <v>44095</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16453,7 +16454,7 @@
         <v>44102</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16510,7 +16511,7 @@
         <v>44103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16567,7 +16568,7 @@
         <v>44106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16624,7 +16625,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16681,7 +16682,7 @@
         <v>44112</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16738,7 +16739,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16800,7 +16801,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16862,7 +16863,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16919,7 +16920,7 @@
         <v>44117</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16976,7 +16977,7 @@
         <v>44118</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17033,7 +17034,7 @@
         <v>44120</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17090,7 +17091,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17147,7 +17148,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17204,7 +17205,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17261,7 +17262,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17318,7 +17319,7 @@
         <v>44130</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17375,7 +17376,7 @@
         <v>44138</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17432,7 +17433,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17489,7 +17490,7 @@
         <v>44144</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17546,7 +17547,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17603,7 +17604,7 @@
         <v>44146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17660,7 +17661,7 @@
         <v>44147</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17717,7 +17718,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17774,7 +17775,7 @@
         <v>44148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17831,7 +17832,7 @@
         <v>44151</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17888,7 +17889,7 @@
         <v>44158</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17945,7 +17946,7 @@
         <v>44166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18007,7 +18008,7 @@
         <v>44178</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18064,7 +18065,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18121,7 +18122,7 @@
         <v>44182</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18178,7 +18179,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18235,7 +18236,7 @@
         <v>44217</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18292,7 +18293,7 @@
         <v>44223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18349,7 +18350,7 @@
         <v>44225</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18411,7 +18412,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18468,7 +18469,7 @@
         <v>44232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18525,7 +18526,7 @@
         <v>44235</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18582,7 +18583,7 @@
         <v>44244</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18639,7 +18640,7 @@
         <v>44260</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18696,7 +18697,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18753,7 +18754,7 @@
         <v>44267</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18810,7 +18811,7 @@
         <v>44269</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18867,7 +18868,7 @@
         <v>44272</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18924,7 +18925,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18981,7 +18982,7 @@
         <v>44276</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19038,7 +19039,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19095,7 +19096,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19152,7 +19153,7 @@
         <v>44280</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19209,7 +19210,7 @@
         <v>44284</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19266,7 +19267,7 @@
         <v>44287</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19323,7 +19324,7 @@
         <v>44292</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19380,7 +19381,7 @@
         <v>44293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19437,7 +19438,7 @@
         <v>44301</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19494,7 +19495,7 @@
         <v>44305</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19551,7 +19552,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19608,7 +19609,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19665,7 +19666,7 @@
         <v>44306</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19722,7 +19723,7 @@
         <v>44314</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19779,7 +19780,7 @@
         <v>44323</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19836,7 +19837,7 @@
         <v>44337</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19893,7 +19894,7 @@
         <v>44353</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19950,7 +19951,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20007,7 +20008,7 @@
         <v>44357</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20069,7 +20070,7 @@
         <v>44363</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20131,7 +20132,7 @@
         <v>44364</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20188,7 +20189,7 @@
         <v>44368</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20245,7 +20246,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20302,7 +20303,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20359,7 +20360,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20416,7 +20417,7 @@
         <v>44386</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20473,7 +20474,7 @@
         <v>44391</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20530,7 +20531,7 @@
         <v>44395</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20587,7 +20588,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20644,7 +20645,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20701,7 +20702,7 @@
         <v>44399</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20758,7 +20759,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20816,7 @@
         <v>44426</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20872,7 +20873,7 @@
         <v>44431</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20929,7 +20930,7 @@
         <v>44438</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20986,7 +20987,7 @@
         <v>44446</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21043,7 +21044,7 @@
         <v>44453</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21100,7 +21101,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21157,7 +21158,7 @@
         <v>44455</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21214,7 +21215,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21271,7 +21272,7 @@
         <v>44473</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21328,7 +21329,7 @@
         <v>44475</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21385,7 +21386,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21447,7 +21448,7 @@
         <v>44477</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21504,7 +21505,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21561,7 +21562,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21618,7 +21619,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21675,7 +21676,7 @@
         <v>44482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21732,7 +21733,7 @@
         <v>44490</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21789,7 +21790,7 @@
         <v>44496</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21846,7 +21847,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21903,7 +21904,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21960,7 +21961,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22017,7 +22018,7 @@
         <v>44502</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22074,7 +22075,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22131,7 +22132,7 @@
         <v>44525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22188,7 +22189,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22245,7 +22246,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22302,7 +22303,7 @@
         <v>44526</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22359,7 +22360,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22416,7 +22417,7 @@
         <v>44531</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22473,7 +22474,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22530,7 +22531,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22587,7 +22588,7 @@
         <v>44532</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22644,7 +22645,7 @@
         <v>44543</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22701,7 +22702,7 @@
         <v>44546</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22763,7 +22764,7 @@
         <v>44547</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22820,7 +22821,7 @@
         <v>44557</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22877,7 +22878,7 @@
         <v>44566</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22939,7 +22940,7 @@
         <v>44568</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22996,7 +22997,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23053,7 +23054,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23110,7 +23111,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23167,7 +23168,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23224,7 +23225,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23281,7 +23282,7 @@
         <v>44575</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23338,7 +23339,7 @@
         <v>44580</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23395,7 +23396,7 @@
         <v>44587</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23452,7 +23453,7 @@
         <v>44588</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23509,7 +23510,7 @@
         <v>44600</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23566,7 +23567,7 @@
         <v>44606</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23623,7 +23624,7 @@
         <v>44607</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23685,7 +23686,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23742,7 +23743,7 @@
         <v>44609</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23804,7 +23805,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23861,7 +23862,7 @@
         <v>44622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23918,7 +23919,7 @@
         <v>44623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23975,7 +23976,7 @@
         <v>44655</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24032,7 +24033,7 @@
         <v>44657</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24089,7 +24090,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24146,7 +24147,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24203,7 +24204,7 @@
         <v>44664</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24260,7 +24261,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24317,7 +24318,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24374,7 +24375,7 @@
         <v>44678</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24431,7 +24432,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24488,7 +24489,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24545,7 +24546,7 @@
         <v>44679</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24602,7 +24603,7 @@
         <v>44680</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24659,7 +24660,7 @@
         <v>44687</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24716,7 +24717,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24773,7 +24774,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24830,7 +24831,7 @@
         <v>44694</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24887,7 +24888,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24944,7 +24945,7 @@
         <v>44699</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25001,7 +25002,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25058,7 +25059,7 @@
         <v>44728</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25115,7 +25116,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25172,7 +25173,7 @@
         <v>44735</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25234,7 +25235,7 @@
         <v>44753</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25291,7 +25292,7 @@
         <v>44761</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25348,7 +25349,7 @@
         <v>44768</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25410,7 +25411,7 @@
         <v>44775</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25467,7 +25468,7 @@
         <v>44789</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25529,7 +25530,7 @@
         <v>44790</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25586,7 +25587,7 @@
         <v>44795</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25643,7 +25644,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25700,7 +25701,7 @@
         <v>44809</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25757,7 +25758,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25814,7 +25815,7 @@
         <v>44816</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25871,7 +25872,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25928,7 +25929,7 @@
         <v>44819</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25985,7 +25986,7 @@
         <v>44827</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26042,7 +26043,7 @@
         <v>44831</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26099,7 +26100,7 @@
         <v>44838</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26156,7 +26157,7 @@
         <v>44844</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26213,7 +26214,7 @@
         <v>44846</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26270,7 +26271,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26327,7 +26328,7 @@
         <v>44859</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26384,7 +26385,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26441,7 +26442,7 @@
         <v>44862</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26498,7 +26499,7 @@
         <v>44869</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26555,7 +26556,7 @@
         <v>44872</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26612,7 +26613,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26669,7 +26670,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26726,7 +26727,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26783,7 +26784,7 @@
         <v>44893</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26840,7 +26841,7 @@
         <v>44900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26897,7 +26898,7 @@
         <v>44901</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26954,7 +26955,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27011,7 +27012,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27068,7 +27069,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27125,7 +27126,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27182,7 +27183,7 @@
         <v>44909</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27244,7 +27245,7 @@
         <v>44910</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27306,7 +27307,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27363,7 +27364,7 @@
         <v>44928</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27425,7 +27426,7 @@
         <v>44935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27482,7 +27483,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27539,7 +27540,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27596,7 +27597,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27653,7 +27654,7 @@
         <v>44941</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27710,7 +27711,7 @@
         <v>44950</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27767,7 +27768,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27824,7 +27825,7 @@
         <v>44966</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27881,7 +27882,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27938,7 +27939,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27995,7 +27996,7 @@
         <v>44979</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28052,7 +28053,7 @@
         <v>44980</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28109,7 +28110,7 @@
         <v>44991</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28166,7 +28167,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28223,7 +28224,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28280,7 +28281,7 @@
         <v>45001</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28337,7 +28338,7 @@
         <v>45007</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28394,7 +28395,7 @@
         <v>45008</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28451,7 +28452,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28508,7 +28509,7 @@
         <v>45019</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28565,7 +28566,7 @@
         <v>45021</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28622,7 +28623,7 @@
         <v>45033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28679,7 +28680,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28736,7 +28737,7 @@
         <v>45034</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28793,7 +28794,7 @@
         <v>45035</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28850,7 +28851,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28907,7 +28908,7 @@
         <v>45037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28964,7 +28965,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29021,7 +29022,7 @@
         <v>45040</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29078,7 +29079,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29135,7 +29136,7 @@
         <v>45048</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29192,7 +29193,7 @@
         <v>45049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29249,7 +29250,7 @@
         <v>45054</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29311,7 +29312,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29368,7 +29369,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29425,7 +29426,7 @@
         <v>45055</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29482,7 +29483,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29539,7 +29540,7 @@
         <v>45056</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29596,7 +29597,7 @@
         <v>45061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29653,7 +29654,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29715,7 +29716,7 @@
         <v>45063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29777,7 +29778,7 @@
         <v>45069</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29834,7 +29835,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29891,7 +29892,7 @@
         <v>45083</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29948,7 +29949,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30005,7 +30006,7 @@
         <v>45085</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30062,7 +30063,7 @@
         <v>45092</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30119,7 +30120,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30176,7 +30177,7 @@
         <v>45097</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30233,7 +30234,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30290,7 +30291,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30347,7 +30348,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30404,7 +30405,7 @@
         <v>45098</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30461,7 +30462,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30518,7 +30519,7 @@
         <v>45099</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30575,7 +30576,7 @@
         <v>45104</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30632,7 +30633,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30689,7 +30690,7 @@
         <v>45117</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30746,7 +30747,7 @@
         <v>45131</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30803,7 +30804,7 @@
         <v>45139</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30860,7 +30861,7 @@
         <v>45141</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30917,7 +30918,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30974,7 +30975,7 @@
         <v>45142</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31031,7 +31032,7 @@
         <v>45146</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31088,7 +31089,7 @@
         <v>45164</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31145,7 +31146,7 @@
         <v>45177</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31192,7 +31193,7 @@
       </c>
       <c r="R517" s="2" t="inlineStr"/>
     </row>
-    <row r="518">
+    <row r="518" ht="15" customHeight="1">
       <c r="A518" t="inlineStr">
         <is>
           <t>A 43230-2023</t>
@@ -31202,7 +31203,7 @@
         <v>45183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31248,6 +31249,63 @@
         <v>0</v>
       </c>
       <c r="R518" s="2" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>A 46186-2023</t>
+        </is>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C519" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" t="n">
+        <v>0</v>
+      </c>
+      <c r="O519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R519" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44379</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44915</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43470</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43697</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43915</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43360</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43383</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43437</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43441</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43451</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43470</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43472</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43521</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43528</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43558</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43633</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43650</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43665</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43683</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43684</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43695</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43709</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43717</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43727</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43733</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43738</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>43746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43752</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43756</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43762</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43768</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43782</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43790</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43811</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43812</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43817</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43826</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43839</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43846</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43859</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>43860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>43875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43892</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43924</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>43927</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43938</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43945</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43948</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>43964</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>43965</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43979</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43984</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43985</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43990</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44000</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44013</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44056</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44067</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44089</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44095</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44102</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44112</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44117</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44118</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44120</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44130</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44138</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44144</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44147</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44151</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44158</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44178</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44182</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44217</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44225</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44235</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44244</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44260</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44267</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44269</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44272</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44276</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44280</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44284</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44287</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44292</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44301</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44305</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44306</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44314</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44323</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44337</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44353</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44357</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44363</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44364</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44368</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44386</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44391</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44395</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44399</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44426</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44431</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44438</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44446</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44453</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44455</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44473</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44475</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44477</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44490</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44496</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44502</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44526</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44531</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44532</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44543</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44546</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44547</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44557</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44566</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44568</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44575</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44580</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44587</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44588</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44600</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44606</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44607</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44609</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44655</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44657</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44664</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44678</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44679</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44680</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44687</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44694</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44699</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44728</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44735</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44753</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44761</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44768</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44775</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44789</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44790</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44795</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44809</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44816</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44819</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44827</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44831</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44838</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44844</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44846</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44859</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44862</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44869</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44872</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44893</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44901</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44909</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44910</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44928</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44941</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44950</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44966</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44979</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44980</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44991</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45001</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45007</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45008</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45019</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45021</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45034</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45035</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45040</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45048</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45054</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45055</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45056</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45069</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45083</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45085</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45092</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45097</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45098</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45099</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45104</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45117</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45131</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45139</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>45141</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45142</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45146</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45164</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45177</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45196</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y519"/>
+  <dimension ref="A1:Y520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44379</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44915</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43470</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43697</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43915</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43360</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43383</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43437</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43441</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43451</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43470</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43472</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43521</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43528</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43558</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43633</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43650</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43665</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43683</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43684</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43695</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43709</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43717</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43727</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43733</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43738</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>43746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43752</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43756</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43762</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43768</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43782</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43790</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43811</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43812</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43817</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43826</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43839</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43846</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43859</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>43860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>43875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43892</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43924</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>43927</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43938</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43945</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43948</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>43964</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>43965</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43979</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43984</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43985</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43990</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44000</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44013</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44056</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44067</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44089</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44095</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44102</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44112</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44117</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44118</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44120</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44130</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44138</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44144</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44147</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44151</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44158</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44178</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44182</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44217</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44225</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44235</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44244</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44260</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44267</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44269</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44272</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44276</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44280</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44284</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44287</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44292</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44301</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44305</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44306</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44314</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44323</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44337</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44353</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44357</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44363</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44364</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44368</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44386</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44391</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44395</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44399</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44426</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44431</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44438</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44446</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44453</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44455</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44473</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44475</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44477</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44490</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44496</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44502</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44526</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44531</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44532</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44543</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44546</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44547</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44557</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44566</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44568</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44575</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44580</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44587</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44588</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44600</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44606</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44607</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44609</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44655</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44657</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44664</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44678</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44679</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44680</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44687</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44694</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44699</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44728</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44735</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44753</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44761</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44768</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44775</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44789</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44790</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44795</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44809</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44816</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44819</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44827</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44831</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44838</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44844</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44846</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44859</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44862</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44869</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44872</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44893</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44901</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44909</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44910</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44928</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44941</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44950</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44966</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44979</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44980</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44991</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45001</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45007</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45008</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45019</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45021</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45034</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45035</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45040</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45048</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45054</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45055</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45056</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45069</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45083</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45085</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45092</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45097</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45098</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45099</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45104</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45117</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45131</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45139</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>45141</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45142</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45146</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45164</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45177</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
       </c>
       <c r="R518" s="2" t="inlineStr"/>
     </row>
-    <row r="519">
+    <row r="519" ht="15" customHeight="1">
       <c r="A519" t="inlineStr">
         <is>
           <t>A 46186-2023</t>
@@ -31260,7 +31260,7 @@
         <v>45196</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31306,6 +31306,63 @@
         <v>0</v>
       </c>
       <c r="R519" s="2" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>A 47553-2023</t>
+        </is>
+      </c>
+      <c r="B520" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C520" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>ENKÖPING</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N520" t="n">
+        <v>0</v>
+      </c>
+      <c r="O520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R520" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44379</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44915</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43470</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43697</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43915</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43360</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43383</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43437</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43441</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43451</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43470</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43472</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43521</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43528</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43558</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43633</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43650</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43665</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43683</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43684</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43695</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43709</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43717</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43727</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43733</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43738</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>43746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43752</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43756</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43762</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43768</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43782</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43790</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43811</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43812</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43817</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43826</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43839</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43846</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43859</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>43860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>43875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43892</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43924</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>43927</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43938</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43945</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43948</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>43964</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>43965</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43979</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43984</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43985</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43990</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44000</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44013</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44056</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44067</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44089</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44095</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44102</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44112</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44117</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44118</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44120</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44130</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44138</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44144</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44147</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44151</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44158</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44178</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44182</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44217</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44225</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44235</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44244</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44260</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44267</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44269</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44272</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44276</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44280</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44284</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44287</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44292</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44301</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44305</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44306</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44314</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44323</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44337</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44353</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44357</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44363</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44364</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44368</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44386</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44391</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44395</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44399</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44426</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44431</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44438</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44446</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44453</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44455</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44473</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44475</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44477</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44490</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44496</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44502</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44526</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44531</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44532</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44543</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44546</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44547</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44557</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44566</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44568</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44575</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44580</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44587</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44588</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44600</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44606</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44607</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44609</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44655</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44657</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44664</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44678</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44679</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44680</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44687</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44694</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44699</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44728</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44735</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44753</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44761</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44768</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44775</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44789</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44790</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44795</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44809</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44816</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44819</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44827</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44831</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44838</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44844</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44846</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44859</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44862</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44869</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44872</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44893</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44901</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44909</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44910</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44928</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44941</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44950</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44966</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44979</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44980</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44991</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45001</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45007</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45008</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45019</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45021</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45034</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45035</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45040</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45048</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45054</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45055</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45056</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45069</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45083</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45085</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45092</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45097</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45098</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45099</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45104</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45117</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45131</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45139</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>45141</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45142</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45146</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45164</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45177</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45196</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45203</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43650</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44575</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44910</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43733</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>43742</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43866</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44697</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43440</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>44379</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>44557</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44915</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43470</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43697</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43915</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44687</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45164</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43325</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43360</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43383</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43437</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43441</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43451</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43470</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43472</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43521</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43528</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43531</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43558</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43633</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43640</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43650</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43665</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43683</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43683</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43684</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43695</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43709</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43709</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43717</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43727</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43727</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43733</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43738</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>43745</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>43746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43752</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43756</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43759</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43762</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43766</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43766</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43768</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43773</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43782</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43790</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43811</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43812</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43817</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43817</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43826</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43826</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43839</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43846</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43846</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43846</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43846</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43846</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43859</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>43860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>43860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>43865</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43866</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>43866</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>43866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>43874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>43875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>43875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43878</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43878</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43892</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43924</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>43927</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43929</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>43938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43938</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43945</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43948</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>43957</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>43964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>43964</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>43965</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>43970</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>43970</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43979</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43984</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43985</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43985</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43990</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44000</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44013</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44013</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44018</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44056</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44067</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44089</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44095</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44102</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44112</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44112</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44117</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44117</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44117</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44118</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44120</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44123</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44123</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44130</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44138</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44144</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44147</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44151</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44158</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44178</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44182</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44182</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44217</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44225</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44232</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44235</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44244</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44260</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44267</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44269</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44272</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44276</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44276</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44280</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44280</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44280</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44284</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44287</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44292</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44293</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44301</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44305</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44306</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44306</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44306</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44314</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44323</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44337</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44353</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44357</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44363</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44364</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44368</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44386</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44391</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44395</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44399</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44399</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44399</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44426</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44426</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44431</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44438</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44446</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44453</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44455</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44473</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44475</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44477</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44490</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44496</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44502</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44502</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44526</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44526</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44531</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44532</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44532</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44532</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44543</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44546</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44547</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44557</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44566</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44568</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44575</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44575</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44575</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44575</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44575</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44575</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44580</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44587</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44588</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44600</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44606</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44607</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44609</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44609</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44655</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44657</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44664</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44678</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44679</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44679</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44679</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44680</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44687</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44693</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44694</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44699</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44728</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44728</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44735</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44753</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44761</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44768</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44775</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44789</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44790</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44795</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44809</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44809</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44816</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44819</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44819</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44827</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44831</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44838</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44844</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44846</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44859</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44862</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44862</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44869</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44872</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44893</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44901</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44904</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44904</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44909</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44910</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44928</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44941</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44941</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44941</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44950</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44966</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44966</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44978</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44979</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44980</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44991</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45001</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45001</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45001</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45007</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45008</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45019</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45021</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45034</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45035</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45040</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45040</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45048</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45054</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45055</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45055</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45055</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45056</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45056</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45069</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45083</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45083</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45085</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45092</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45097</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45098</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45099</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45104</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45117</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45131</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45139</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>45141</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>45142</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45142</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45146</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45164</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45177</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45196</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45203</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
